--- a/Sql_Basic_class_9.xlsx
+++ b/Sql_Basic_class_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitis\Desktop\FSD_US\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F0BA0D-DC78-45CB-893B-E4697F6FD2AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E926D-692F-46B9-BB6A-78B432948432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{9DD6BBBE-B032-44C6-B576-0AD93E51B0F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{9DD6BBBE-B032-44C6-B576-0AD93E51B0F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
   <si>
     <t>Id</t>
   </si>
@@ -422,6 +423,9 @@
   </si>
   <si>
     <t>fetch first 5 rows only</t>
+  </si>
+  <si>
+    <t>change</t>
   </si>
 </sst>
 </file>
@@ -2637,7 +2641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DBF3227-732D-4BC9-B1C1-2CAEDCD01F7D}">
   <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -2710,4 +2714,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B1A13A-0F1B-4A8E-BB70-1D5A0FEC2726}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>